--- a/data/2020-02-10/Senior Cubers Worldwide - Weekly Competition - 2020-02-10.xlsx
+++ b/data/2020-02-10/Senior Cubers Worldwide - Weekly Competition - 2020-02-10.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\scw-weekly-comp\data\2020-02-10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\scw-comp\data\2020-02-10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E3D056-D991-4B3E-8D37-05EEDC76AD6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADC7A6E-40C8-45B5-8CC2-E2422D7A87CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3x3x3" sheetId="1" r:id="rId1"/>
@@ -226,9 +226,6 @@
     <t>https://www.facebook.com/groups/1604105099735401/permalink/2133654140113825/</t>
   </si>
   <si>
-    <t>Dan Smith</t>
-  </si>
-  <si>
     <t>50+</t>
   </si>
   <si>
@@ -441,6 +438,9 @@
   <si>
     <t>🔥 ⚡</t>
   </si>
+  <si>
+    <t>Daniel Smith</t>
+  </si>
 </sst>
 </file>
 
@@ -457,56 +457,66 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFD9D9D9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -516,11 +526,13 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFD9D9D9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -869,8 +881,8 @@
   </sheetPr>
   <dimension ref="A1:L1016"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -927,7 +939,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>9</v>
@@ -997,7 +1009,7 @@
         <v>15.65</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F5" s="17">
         <v>12.1</v>
@@ -1100,7 +1112,7 @@
         <v>19.2</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F8" s="21">
         <v>18.489999999999998</v>
@@ -1126,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>21</v>
@@ -1168,7 +1180,7 @@
         <v>21.68</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F10" s="17">
         <v>21.02</v>
@@ -1219,7 +1231,7 @@
         <v>20.170000000000002</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75">
@@ -1227,7 +1239,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>16</v>
@@ -1236,7 +1248,7 @@
         <v>22.72</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F12" s="24">
         <v>17.3</v>
@@ -1254,7 +1266,7 @@
         <v>31.93</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75">
@@ -1262,7 +1274,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>21</v>
@@ -1271,7 +1283,7 @@
         <v>23.58</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F13" s="17">
         <v>23.38</v>
@@ -1289,7 +1301,7 @@
         <v>25.9</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75">
@@ -1297,7 +1309,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>16</v>
@@ -1322,7 +1334,7 @@
         <v>36.89</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="12.75">
@@ -1330,7 +1342,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>21</v>
@@ -1346,7 +1358,7 @@
         <v>24.74</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I15" s="17">
         <v>22.48</v>
@@ -1355,7 +1367,7 @@
         <v>27.14</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="12.75">
@@ -1363,7 +1375,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>16</v>
@@ -1388,7 +1400,7 @@
         <v>27.95</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="12.75">
@@ -1396,7 +1408,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>16</v>
@@ -1405,7 +1417,7 @@
         <v>30.08</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F17" s="17">
         <v>25.89</v>
@@ -1423,7 +1435,7 @@
         <v>30.97</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="12.75">
@@ -1431,7 +1443,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>21</v>
@@ -1440,7 +1452,7 @@
         <v>32.86</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F18" s="17">
         <v>23.34</v>
@@ -1458,18 +1470,18 @@
         <v>43.56</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="12.75">
       <c r="A19" s="25">
         <v>16</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>65</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>66</v>
       </c>
       <c r="D19" s="17">
         <v>34.15</v>
@@ -1491,7 +1503,7 @@
         <v>30.56</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="12.75">
@@ -1499,10 +1511,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" s="17">
         <f>(SUM(F20:J20)-MAX(F20:J20)-MIN(F20:J20))/3</f>
@@ -1525,10 +1537,10 @@
         <v>40.094999999999999</v>
       </c>
       <c r="K20" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="L20" s="22" t="s">
         <v>111</v>
-      </c>
-      <c r="L20" s="22" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="12.75">
@@ -1536,7 +1548,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>21</v>
@@ -1545,7 +1557,7 @@
         <v>42.93</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F21" s="17">
         <v>35.76</v>
@@ -1563,7 +1575,7 @@
         <v>42.46</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="12.75">
@@ -1571,7 +1583,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>21</v>
@@ -1596,7 +1608,7 @@
         <v>41.63</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="12.75">
@@ -1604,7 +1616,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>21</v>
@@ -1613,13 +1625,13 @@
         <v>50.72</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F23" s="17">
         <v>53.96</v>
       </c>
       <c r="G23" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H23" s="17">
         <v>44.3</v>
@@ -1631,7 +1643,7 @@
         <v>44.56</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="12.75">
@@ -1639,7 +1651,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>21</v>
@@ -1648,10 +1660,10 @@
         <v>60.84</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G24" s="17">
         <v>58.8</v>
@@ -1663,10 +1675,10 @@
         <v>58.48</v>
       </c>
       <c r="J24" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="K24" s="18" t="s">
         <v>119</v>
-      </c>
-      <c r="K24" s="18" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="12.75">
@@ -8718,8 +8730,8 @@
   </sheetPr>
   <dimension ref="A1:L1007"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -8931,7 +8943,7 @@
         <v>46</v>
       </c>
       <c r="J7" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K7" s="18" t="s">
         <v>47</v>
@@ -9009,24 +9021,24 @@
       <c r="A10" s="14">
         <v>7</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="D10" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>67</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="H10" s="17" t="s">
         <v>69</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>70</v>
       </c>
       <c r="I10" s="17" t="s">
         <v>55</v>
@@ -9035,7 +9047,7 @@
         <v>55</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="12.75">
@@ -9043,23 +9055,23 @@
         <v>8</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="G11" s="37" t="s">
-        <v>123</v>
-      </c>
       <c r="H11" s="37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I11" s="17" t="s">
         <v>55</v>
@@ -9068,7 +9080,7 @@
         <v>55</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="12.75">
@@ -9076,23 +9088,23 @@
         <v>9</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="H12" s="17" t="s">
         <v>79</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>80</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>55</v>
@@ -9101,7 +9113,7 @@
         <v>55</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="12.75">
@@ -9109,23 +9121,23 @@
         <v>10</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="H13" s="21" t="s">
         <v>87</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>88</v>
       </c>
       <c r="I13" s="21" t="s">
         <v>55</v>
@@ -9134,10 +9146,10 @@
         <v>55</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L13" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="12.75">
@@ -9145,23 +9157,23 @@
         <v>11</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="G14" s="36" t="s">
+      <c r="H14" s="36" t="s">
         <v>127</v>
-      </c>
-      <c r="H14" s="36" t="s">
-        <v>128</v>
       </c>
       <c r="I14" s="17" t="s">
         <v>55</v>
@@ -9170,7 +9182,7 @@
         <v>55</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="12.75">
@@ -9178,23 +9190,23 @@
         <v>12</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="H15" s="21" t="s">
         <v>101</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>102</v>
       </c>
       <c r="I15" s="17" t="s">
         <v>55</v>
@@ -9203,7 +9215,7 @@
         <v>55</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="12.75">
